--- a/data/pca/factorExposure/factorExposure_2013-04-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-04-25.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0001916425341650423</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001903666932255137</v>
+      </c>
+      <c r="C2">
+        <v>0.03255232256154914</v>
+      </c>
+      <c r="D2">
+        <v>0.007070132591363616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.002016487113806707</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005988112049754878</v>
+      </c>
+      <c r="C4">
+        <v>0.08531520262965304</v>
+      </c>
+      <c r="D4">
+        <v>0.07815192874264414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.001147216809007116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01320263836818359</v>
+      </c>
+      <c r="C6">
+        <v>0.1085694889627962</v>
+      </c>
+      <c r="D6">
+        <v>0.03384214697899798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.002227861942013002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004580049048812524</v>
+      </c>
+      <c r="C7">
+        <v>0.05404103455368737</v>
+      </c>
+      <c r="D7">
+        <v>0.03576371724759959</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0006262096427486118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005587540846226738</v>
+      </c>
+      <c r="C8">
+        <v>0.03784287814524176</v>
+      </c>
+      <c r="D8">
+        <v>0.0371318961023773</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003995179323062712</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.003959441135407003</v>
+      </c>
+      <c r="C9">
+        <v>0.06982508260152064</v>
+      </c>
+      <c r="D9">
+        <v>0.07170247849668408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004442666702564484</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005633549869077344</v>
+      </c>
+      <c r="C10">
+        <v>0.07274574841071661</v>
+      </c>
+      <c r="D10">
+        <v>-0.2141426194485285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.003363831701019153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005179842312495061</v>
+      </c>
+      <c r="C11">
+        <v>0.07825637338875628</v>
+      </c>
+      <c r="D11">
+        <v>0.06500732039218075</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>5.558913668923422e-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003928786529460911</v>
+      </c>
+      <c r="C12">
+        <v>0.06372276508774191</v>
+      </c>
+      <c r="D12">
+        <v>0.04766925598223143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.003007393841939718</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008279697309337457</v>
+      </c>
+      <c r="C13">
+        <v>0.06516044464256729</v>
+      </c>
+      <c r="D13">
+        <v>0.06723487781379775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.001483624826016868</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001515643178655824</v>
+      </c>
+      <c r="C14">
+        <v>0.04606674212480887</v>
+      </c>
+      <c r="D14">
+        <v>0.01328682882897344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0009365766086219837</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005827150176786461</v>
+      </c>
+      <c r="C15">
+        <v>0.04099050755754271</v>
+      </c>
+      <c r="D15">
+        <v>0.03217809720057604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.001712283705620476</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004827809915691535</v>
+      </c>
+      <c r="C16">
+        <v>0.06483112982816447</v>
+      </c>
+      <c r="D16">
+        <v>0.05016306603664703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.000188433520798446</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008877233623608372</v>
+      </c>
+      <c r="C20">
+        <v>0.06517276181561261</v>
+      </c>
+      <c r="D20">
+        <v>0.05529139557594725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005399992983945065</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009762868751242488</v>
+      </c>
+      <c r="C21">
+        <v>0.0218661053789624</v>
+      </c>
+      <c r="D21">
+        <v>0.03600666905998122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.0172227042064592</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.00702432600919747</v>
+      </c>
+      <c r="C22">
+        <v>0.09410225062001416</v>
+      </c>
+      <c r="D22">
+        <v>0.1022374285130004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01754847732062703</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006838036498512618</v>
+      </c>
+      <c r="C23">
+        <v>0.09496064466318982</v>
+      </c>
+      <c r="D23">
+        <v>0.1025584902072959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.002103577300453234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004831115504310677</v>
+      </c>
+      <c r="C24">
+        <v>0.07311778343716002</v>
+      </c>
+      <c r="D24">
+        <v>0.06155854107205349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.004058036536109051</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002660742246241249</v>
+      </c>
+      <c r="C25">
+        <v>0.07724128457342645</v>
+      </c>
+      <c r="D25">
+        <v>0.06647545338631353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.006208839773569568</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003572182677252391</v>
+      </c>
+      <c r="C26">
+        <v>0.04154284682013801</v>
+      </c>
+      <c r="D26">
+        <v>0.02830509304926286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.004110208251586738</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0005631608215165995</v>
+      </c>
+      <c r="C28">
+        <v>0.1197323916071525</v>
+      </c>
+      <c r="D28">
+        <v>-0.3088750529230982</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001424914094023866</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003227676832894906</v>
+      </c>
+      <c r="C29">
+        <v>0.04891104817573644</v>
+      </c>
+      <c r="D29">
+        <v>0.01304427930478494</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.004468497833876541</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008569365911065246</v>
+      </c>
+      <c r="C30">
+        <v>0.1385249678370728</v>
+      </c>
+      <c r="D30">
+        <v>0.106514878836492</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0001299904283814588</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006054708302641594</v>
+      </c>
+      <c r="C31">
+        <v>0.04523843218648462</v>
+      </c>
+      <c r="D31">
+        <v>0.03160276850520336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0001734162184936111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003922869487688606</v>
+      </c>
+      <c r="C32">
+        <v>0.0397882041546026</v>
+      </c>
+      <c r="D32">
+        <v>0.01849862002369674</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003505265278139256</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007725532229406674</v>
+      </c>
+      <c r="C33">
+        <v>0.0839189594957158</v>
+      </c>
+      <c r="D33">
+        <v>0.07524564799954522</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004795423197476696</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003763879064039655</v>
+      </c>
+      <c r="C34">
+        <v>0.05794384524941158</v>
+      </c>
+      <c r="D34">
+        <v>0.04744269915321965</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002729177248371563</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004670445533520614</v>
+      </c>
+      <c r="C35">
+        <v>0.03857821351620062</v>
+      </c>
+      <c r="D35">
+        <v>0.01412400560580249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004035415810332651</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001454751979881856</v>
+      </c>
+      <c r="C36">
+        <v>0.02352441947207016</v>
+      </c>
+      <c r="D36">
+        <v>0.02345380819389013</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002054704903061031</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009174787262888348</v>
+      </c>
+      <c r="C38">
+        <v>0.03320295902924821</v>
+      </c>
+      <c r="D38">
+        <v>0.01965860724145976</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01331989561474835</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001077941892752276</v>
+      </c>
+      <c r="C39">
+        <v>0.1151032166528594</v>
+      </c>
+      <c r="D39">
+        <v>0.08485744771069861</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009400138038045559</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002004742493441145</v>
+      </c>
+      <c r="C40">
+        <v>0.08725379802492811</v>
+      </c>
+      <c r="D40">
+        <v>0.02079333927855844</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0003997462542066992</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007317761464247499</v>
+      </c>
+      <c r="C41">
+        <v>0.03926251907944428</v>
+      </c>
+      <c r="D41">
+        <v>0.0347736554253403</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003158596321460404</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003461292742568523</v>
+      </c>
+      <c r="C43">
+        <v>0.05082705703893661</v>
+      </c>
+      <c r="D43">
+        <v>0.02537474226222964</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.002424525369617983</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003311277244649039</v>
+      </c>
+      <c r="C44">
+        <v>0.1103929442053968</v>
+      </c>
+      <c r="D44">
+        <v>0.08416590425870592</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001786593864062092</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002245603754128389</v>
+      </c>
+      <c r="C46">
+        <v>0.03393848657119658</v>
+      </c>
+      <c r="D46">
+        <v>0.03111469685667184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001080309425567622</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002567130346821913</v>
+      </c>
+      <c r="C47">
+        <v>0.03800250672171184</v>
+      </c>
+      <c r="D47">
+        <v>0.02355349007558613</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003371347708719137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006282783121738511</v>
+      </c>
+      <c r="C48">
+        <v>0.02855010549861137</v>
+      </c>
+      <c r="D48">
+        <v>0.03330928639355232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01437211182671888</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01424370112139538</v>
+      </c>
+      <c r="C49">
+        <v>0.1741460835029476</v>
+      </c>
+      <c r="D49">
+        <v>0.02571029547783376</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001338972187729326</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.00351335067919109</v>
+      </c>
+      <c r="C50">
+        <v>0.04287467774444342</v>
+      </c>
+      <c r="D50">
+        <v>0.0358900400292575</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.001299586104977012</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004228678472676001</v>
+      </c>
+      <c r="C51">
+        <v>0.02100145681846267</v>
+      </c>
+      <c r="D51">
+        <v>0.03242841661917439</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-3.2021554534085e-05</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.01991759803117645</v>
+      </c>
+      <c r="C53">
+        <v>0.1651465512571276</v>
+      </c>
+      <c r="D53">
+        <v>0.04725409094180295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001011457082041163</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008529145006247567</v>
+      </c>
+      <c r="C54">
+        <v>0.05504903208503222</v>
+      </c>
+      <c r="D54">
+        <v>0.0422869272501764</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.004095070274328499</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009093112086395207</v>
+      </c>
+      <c r="C55">
+        <v>0.1067821626387752</v>
+      </c>
+      <c r="D55">
+        <v>0.05203531591831182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.002698389546465446</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01939116189131706</v>
+      </c>
+      <c r="C56">
+        <v>0.1731420210779375</v>
+      </c>
+      <c r="D56">
+        <v>0.04416140899807094</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.008066608438539244</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01905520677092585</v>
+      </c>
+      <c r="C58">
+        <v>0.1038393485052012</v>
+      </c>
+      <c r="D58">
+        <v>0.06970794384792947</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.006817214644418607</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009425858512089977</v>
+      </c>
+      <c r="C59">
+        <v>0.1683955186199515</v>
+      </c>
+      <c r="D59">
+        <v>-0.2871123241118255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.004807750066978731</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02319995692294487</v>
+      </c>
+      <c r="C60">
+        <v>0.2226017968774367</v>
+      </c>
+      <c r="D60">
+        <v>0.02775019279225915</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01503591876982677</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002154384967150842</v>
+      </c>
+      <c r="C61">
+        <v>0.09415029756134549</v>
+      </c>
+      <c r="D61">
+        <v>0.06224363387020712</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1714689586330174</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1436569683836466</v>
+      </c>
+      <c r="C62">
+        <v>0.08077310486069798</v>
+      </c>
+      <c r="D62">
+        <v>0.0550146897875505</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001484867825154425</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006316136452548224</v>
+      </c>
+      <c r="C63">
+        <v>0.05943820859188297</v>
+      </c>
+      <c r="D63">
+        <v>0.02503614390411115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.006693178678508416</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01475941745202743</v>
+      </c>
+      <c r="C64">
+        <v>0.1032158401125927</v>
+      </c>
+      <c r="D64">
+        <v>0.06358726675524679</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.0006942795665330582</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01697628866686305</v>
+      </c>
+      <c r="C65">
+        <v>0.1162411590012379</v>
+      </c>
+      <c r="D65">
+        <v>0.02286803604006948</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.008310095827963401</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01203613202023216</v>
+      </c>
+      <c r="C66">
+        <v>0.1549198023456786</v>
+      </c>
+      <c r="D66">
+        <v>0.1218315029326831</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003437544750278946</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01523339541706374</v>
+      </c>
+      <c r="C67">
+        <v>0.06353322729697841</v>
+      </c>
+      <c r="D67">
+        <v>0.03013737763490227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.006591787893476161</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001013692509146305</v>
+      </c>
+      <c r="C68">
+        <v>0.102437781947215</v>
+      </c>
+      <c r="D68">
+        <v>-0.2598779100040078</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002702370859150314</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005760960018614128</v>
+      </c>
+      <c r="C69">
+        <v>0.04848514938848324</v>
+      </c>
+      <c r="D69">
+        <v>0.0429338067246104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001742786994125262</v>
+      </c>
+      <c r="C70">
+        <v>0.001732360130353075</v>
+      </c>
+      <c r="D70">
+        <v>0.002476855015877829</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001650155397578061</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006065166695629449</v>
+      </c>
+      <c r="C71">
+        <v>0.1067657317073901</v>
+      </c>
+      <c r="D71">
+        <v>-0.285562753968547</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.006342400314708447</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01534573693487319</v>
+      </c>
+      <c r="C72">
+        <v>0.150183216762887</v>
+      </c>
+      <c r="D72">
+        <v>0.01913766161485611</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01199933864931725</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02904842827235536</v>
+      </c>
+      <c r="C73">
+        <v>0.2806095442954605</v>
+      </c>
+      <c r="D73">
+        <v>0.04694619886228977</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.004786074329493245</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.0011700642572825</v>
+      </c>
+      <c r="C74">
+        <v>0.10443143076207</v>
+      </c>
+      <c r="D74">
+        <v>0.04382012317616334</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.004891518941037573</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01050546781585678</v>
+      </c>
+      <c r="C75">
+        <v>0.1321490478145033</v>
+      </c>
+      <c r="D75">
+        <v>0.02569632396471601</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.009325705244726578</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02094915682425546</v>
+      </c>
+      <c r="C76">
+        <v>0.1484154859493875</v>
+      </c>
+      <c r="D76">
+        <v>0.06948754337947238</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.001171352230533512</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02404616361114127</v>
+      </c>
+      <c r="C77">
+        <v>0.1333626377186439</v>
+      </c>
+      <c r="D77">
+        <v>0.06437434518752311</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.001635873539274559</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01392343677825573</v>
+      </c>
+      <c r="C78">
+        <v>0.09173826963661612</v>
+      </c>
+      <c r="D78">
+        <v>0.06856818908563186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02481676976376203</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03661614458007371</v>
+      </c>
+      <c r="C79">
+        <v>0.1570664974971802</v>
+      </c>
+      <c r="D79">
+        <v>0.03137107632867894</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.004884220756962503</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01033317380764584</v>
+      </c>
+      <c r="C80">
+        <v>0.04085810509040262</v>
+      </c>
+      <c r="D80">
+        <v>0.03308489069297419</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001277100327614495</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01430541086470618</v>
+      </c>
+      <c r="C81">
+        <v>0.1232890894065701</v>
+      </c>
+      <c r="D81">
+        <v>0.05645187101359733</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.004372369519352406</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01913629988549374</v>
+      </c>
+      <c r="C82">
+        <v>0.1422701274114474</v>
+      </c>
+      <c r="D82">
+        <v>0.04575537586084225</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008459191729674321</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009766820649333166</v>
+      </c>
+      <c r="C83">
+        <v>0.05446692653122653</v>
+      </c>
+      <c r="D83">
+        <v>0.05016245190033552</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01257206854526192</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01150415321909566</v>
+      </c>
+      <c r="C84">
+        <v>0.03404189423680747</v>
+      </c>
+      <c r="D84">
+        <v>-0.004662058615977834</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01498548705551572</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02769000467764879</v>
+      </c>
+      <c r="C85">
+        <v>0.1285682034544078</v>
+      </c>
+      <c r="D85">
+        <v>0.04910678679439899</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.001501866775395223</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005373868157222858</v>
+      </c>
+      <c r="C86">
+        <v>0.04820838049242834</v>
+      </c>
+      <c r="D86">
+        <v>0.0226751467729396</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.005520655474344632</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01001707109840289</v>
+      </c>
+      <c r="C87">
+        <v>0.1298532552855859</v>
+      </c>
+      <c r="D87">
+        <v>0.07616842429352089</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01339037208580891</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.00295193970145099</v>
+      </c>
+      <c r="C88">
+        <v>0.06785627478567602</v>
+      </c>
+      <c r="D88">
+        <v>0.01429854901885689</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01575357312578642</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001001471757505965</v>
+      </c>
+      <c r="C89">
+        <v>0.1580769358536638</v>
+      </c>
+      <c r="D89">
+        <v>-0.3398513130647268</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002999210767502565</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007403958644746166</v>
+      </c>
+      <c r="C90">
+        <v>0.1379047753648583</v>
+      </c>
+      <c r="D90">
+        <v>-0.3226283916938716</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0005093348552382119</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.009998090316260283</v>
+      </c>
+      <c r="C91">
+        <v>0.1050186094907881</v>
+      </c>
+      <c r="D91">
+        <v>0.0201494900746247</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.008557251904614845</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0006538080908650173</v>
+      </c>
+      <c r="C92">
+        <v>0.1447389412724858</v>
+      </c>
+      <c r="D92">
+        <v>-0.3303059752416427</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0009674216345797505</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005239001783523875</v>
+      </c>
+      <c r="C93">
+        <v>0.1185299016422753</v>
+      </c>
+      <c r="D93">
+        <v>-0.3133582127136202</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.002853167425246437</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02184350561916815</v>
+      </c>
+      <c r="C94">
+        <v>0.1561283475240544</v>
+      </c>
+      <c r="D94">
+        <v>0.03314777886202219</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.005277321645063508</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01584455494028626</v>
+      </c>
+      <c r="C95">
+        <v>0.1253319977551762</v>
+      </c>
+      <c r="D95">
+        <v>0.06442096003553542</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.002225489565189181</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03443543800698948</v>
+      </c>
+      <c r="C97">
+        <v>0.1822348318039197</v>
+      </c>
+      <c r="D97">
+        <v>0.03582866435180352</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.005175335602244437</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03615377805983751</v>
+      </c>
+      <c r="C98">
+        <v>0.2518482530897059</v>
+      </c>
+      <c r="D98">
+        <v>0.04841541355234445</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9831607070869962</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9828496105262721</v>
+      </c>
+      <c r="C99">
+        <v>-0.1094724344852616</v>
+      </c>
+      <c r="D99">
+        <v>-0.03045707212945723</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001380488996280307</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003271407575817713</v>
+      </c>
+      <c r="C101">
+        <v>0.04893771402551254</v>
+      </c>
+      <c r="D101">
+        <v>0.01345759399396904</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
